--- a/medicine/Enfance/Georges_Sogny/Georges_Sogny.xlsx
+++ b/medicine/Enfance/Georges_Sogny/Georges_Sogny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Sogny né le 16 août 1896 à Épernay (Marne) et mort le 26 octobre 1962 à Chartèves (Aisne[1]) est un illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Sogny né le 16 août 1896 à Épernay (Marne) et mort le 26 octobre 1962 à Chartèves (Aisne) est un illustrateur français.
 Il signe souvent ses œuvres « G. Sogny ».
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Georges Sogny commence sa carrière comme dessinateur de presse. Pendant la Première Guerre mondiale, il est blessé à la bataille de la Somme et évacué en Mayenne. Il est recruté par le journal angevin L'Ouest pour lequel il réalise d'abord des croquis d'audience et d'événements locaux[2]. Du 11 novembre 1923 au 14 septembre 1927, il publie dans L'Ouest la série des Profils angevins, plus de 250 caricatures de personnalités angevines (la bibliothèque municipale d'Angers conserve 81 dessins originaux de ses portraits croqués à la mine de plomb[3]). En 1934, il obtient un prix pour un portrait présenté au Salon des artistes français. Ce prix lui ouvre de nouvelles portes et lui permet de collaborer au Journal de Mickey de 1939 à 1942.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Georges Sogny commence sa carrière comme dessinateur de presse. Pendant la Première Guerre mondiale, il est blessé à la bataille de la Somme et évacué en Mayenne. Il est recruté par le journal angevin L'Ouest pour lequel il réalise d'abord des croquis d'audience et d'événements locaux. Du 11 novembre 1923 au 14 septembre 1927, il publie dans L'Ouest la série des Profils angevins, plus de 250 caricatures de personnalités angevines (la bibliothèque municipale d'Angers conserve 81 dessins originaux de ses portraits croqués à la mine de plomb). En 1934, il obtient un prix pour un portrait présenté au Salon des artistes français. Ce prix lui ouvre de nouvelles portes et lui permet de collaborer au Journal de Mickey de 1939 à 1942.
 Il a travaillé pour le compte de la maison d’édition Ferenczi à partir de 1938 où il a dessiné de nombreuses couvertures pour les collections suivantes :
 Le Bandeau noir (romans policiers) ;
 Le Verrou (romans policiers) ;
@@ -550,12 +564,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans policiers
-Collection « Le Petit Roman policier » , éditions Ferenczi &amp; fils
-Yodo-Kouri[4], Pierre Dennys, no 1, 1938 ;
-Qui a volé ?[5], Claude Ascain, no 8, 1938 ;
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Collection « Le Petit Roman policier » , éditions Ferenczi &amp; fils</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Yodo-Kouri, Pierre Dennys, no 1, 1938 ;
+Qui a volé ?, Claude Ascain, no 8, 1938 ;
 On a volé un dirigeable, Maurice Limat, no 41, 1939 ;
-Collection « Mon roman policier illustré »  éditions Ferenczi &amp; fils
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Collection « Mon roman policier illustré »  éditions Ferenczi &amp; fils</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Cave de l'épouvante, Maurice d'Escrignelles, no 51, 1947 ;
 Service de renseignements, Hervé Cox, no 52, 1947 ;
 Six mois d'angoisse, Étienne Retterdy, no 54, 1947 ;
@@ -697,7 +760,47 @@
 148 Pensylviana Avenue, Georges Fronval, no 242, 1952 ;
 Classé sans suite, Richebourg, 1956 ;
 Six heures d'angoisse, Bertrand Richard, 1957.
-Collection « Le Verrou », éditions Ferenczi &amp; fils
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collection « Le Verrou », éditions Ferenczi &amp; fils</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Bossu joue pair et impair..., Max-André Dazergues, 1952 ;
 Le Bossu repart à zéro, Max-André Dazergues, 1952 ;
 Des clients pour les pompes funèbres, Pierre Laplace, 1952 ;
@@ -710,13 +813,91 @@
 Un point à la ligne, Alexandra Pecker ;
 Pour en revenir à nos cadavres, Pierre Laplace ;
 A chaque jour suffit son meurtre, Pierre Laplace, 1953.
-Collection « Le Bandeau noir », Éditions SEPE
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Collection « Le Bandeau noir », Éditions SEPE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L’Équipée héroïque, Jean micro ;
 Le Justicier souriant, Jean micro ;
 Treize dans l'île, Yann Lecoeur.
-J'ai envie de pleurer, Ras Foralt, 1949  
-Romans sentimentaux
-Collection « Le Petit Livre », éditions Ferenczi
+J'ai envie de pleurer, Ras Foralt, 1949  </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collection « Le Petit Livre », éditions Ferenczi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Inconnue du soir, Rochelle Creed, 1948 ;
 Line des bois, René Virard, 1949 ;
 L'Amour sauvé des eaux, Paul Clérouc, 1951 ;
@@ -727,10 +908,87 @@
 Le Dernier Mot du cœur ;
 Premiers émois;
 L'Amour en cage, Paul Clérouc, 1955.
-Collection « Le Livre favori », éditions Ferenczi
-Nul ne saura m'aimer, Jean d'Yvelise, 1950.
-Romans pour la jeunesse
-Collection « Jeunesse », romans sélectionnés pour enfants, éditions Ferenczi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collection « Le Livre favori », éditions Ferenczi</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nul ne saura m'aimer, Jean d'Yvelise, 1950.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Sogny</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Romans illustrés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Collection « Jeunesse », romans sélectionnés pour enfants, éditions Ferenczi</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Diables à quatre, Yanka ; no 3, 1949 ;
 La Cachette flottante, Claude Marsèle, no 4, 1949 ;
 Les Enfants du cirque, Line Deberre, no 5, 1949 ;
